--- a/results/nf/15x15/nf_15x15_True_2_20.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53.95</v>
+        <v>48.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00232</v>
+        <v>0.3075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00116</v>
+        <v>0.15375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.16715</v>
+        <v>15.38142</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>32.6</v>
+        <v>31.35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00233</v>
+        <v>0.33127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00116</v>
+        <v>0.16564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12639</v>
+        <v>11.37465</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -524,19 +524,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.55</v>
+        <v>20.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00613</v>
+        <v>0.65003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00153</v>
+        <v>0.16251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25325</v>
+        <v>15.06344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +547,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19.8</v>
+        <v>26.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00728</v>
+        <v>0.32031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00182</v>
+        <v>0.08008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.20195</v>
+        <v>9.672029999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00908</v>
+        <v>0.43267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00151</v>
+        <v>0.07210999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.24157</v>
+        <v>10.52543</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.95</v>
+        <v>13.65</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01172</v>
+        <v>0.5932500000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00195</v>
+        <v>0.09887</v>
       </c>
       <c r="F7" t="n">
-        <v>0.21625</v>
+        <v>10.56027</v>
       </c>
       <c r="G7" t="n">
         <v>0.15</v>
@@ -616,19 +616,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>15.65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01268</v>
+        <v>0.6511400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00159</v>
+        <v>0.08139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.27231</v>
+        <v>9.459720000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +639,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9.65</v>
+        <v>15.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01632</v>
+        <v>0.40776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00204</v>
+        <v>0.05097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.23296</v>
+        <v>8.48845</v>
       </c>
       <c r="G9" t="n">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11.65</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01591</v>
+        <v>0.42173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00159</v>
+        <v>0.04217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2698</v>
+        <v>7.52023</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.4</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0226</v>
+        <v>0.55266</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00226</v>
+        <v>0.05527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.26272</v>
+        <v>7.25281</v>
       </c>
       <c r="G11" t="n">
         <v>0.15</v>
